--- a/src/main/resources/five-stand-template.xlsx
+++ b/src/main/resources/five-stand-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Busche\Desktop\apps\code\trap-scoring\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrbus\Desktop\code\trap-scoring\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABB4FEA-16A0-477B-A129-7976FCFD2C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B37A36-D9BC-44EE-87F0-6DDB2425A71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="36240" windowHeight="23520" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean Data" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Clean Data'!$A$1:$T$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Individual-All-Scores'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Individual-Ladies'!$A$13:$T$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Individual-Men'!$A$13:$T$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Individual-Ladies'!$B$13:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Individual-Men'!$B$13:$D$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Team-Individual-Scores'!$A$1:$E$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Individual-Ladies'!$A$1:$T$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Individual-Men'!$A$1:$T$63</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>EventId</t>
   </si>
@@ -101,21 +101,6 @@
     <t>Round8</t>
   </si>
   <si>
-    <t>Singles</t>
-  </si>
-  <si>
-    <t>Handicap</t>
-  </si>
-  <si>
-    <t>Doubles</t>
-  </si>
-  <si>
-    <t>Skeet</t>
-  </si>
-  <si>
-    <t>Sporting Clays</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -147,6 +132,9 @@
   </si>
   <si>
     <t>State League Standings: Individual Ladies</t>
+  </si>
+  <si>
+    <t>Five Stand</t>
   </si>
 </sst>
 </file>
@@ -1614,228 +1602,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>414265</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1690615</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>188121</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED99116-A512-43E3-B971-A06DED17812A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17130640" y="111921"/>
-          <a:ext cx="3574256" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>2326410</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>92870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>802409</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>130970</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="Iowa Department of Natural Resources">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138E4428-0A84-42D4-A0DB-52638D0E5D79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21340691" y="92870"/>
-          <a:ext cx="4202906" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1785874</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>57087</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>111921</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 5" descr="https://sssfonline.org/wp-content/uploads/2014/03/clayTarget-logo.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A41606-FE5A-42BC-9E10-EB4C47C29CC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="26527062" y="111921"/>
-          <a:ext cx="1152525" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2032,228 +1798,6 @@
         <a:xfrm>
           <a:off x="9722651" y="161923"/>
           <a:ext cx="1152525" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>414265</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1690615</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>188121</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB5B063-B781-4378-BB79-019E54C842DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17121115" y="111921"/>
-          <a:ext cx="3571875" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>2326410</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>92870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>802409</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>130970</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Iowa Department of Natural Resources">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3517D4-8D84-4CE0-B1CC-A18F51080566}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21328785" y="92870"/>
-          <a:ext cx="4200524" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1785874</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>57087</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>111921</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 5" descr="https://sssfonline.org/wp-content/uploads/2014/03/clayTarget-logo.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65A8D33-A5FF-4FEB-822D-8AB6EF846314}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="26512774" y="111921"/>
-          <a:ext cx="1147763" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2666,10 +2210,10 @@
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +2256,7 @@
   <sheetData>
     <row r="9" spans="2:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2729,24 +2273,12 @@
     </row>
     <row r="10" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:14" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2330,7 @@
   <sheetData>
     <row r="9" spans="2:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2815,24 +2347,12 @@
     </row>
     <row r="10" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:14" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +2404,7 @@
   <sheetData>
     <row r="9" spans="2:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2901,12 +2421,12 @@
     </row>
     <row r="10" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:14" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2453,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:T13"/>
+  <dimension ref="B1:S13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -2961,65 +2481,65 @@
     <col min="20" max="20" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C1"/>
       <c r="G1"/>
       <c r="K1"/>
       <c r="O1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C2"/>
       <c r="G2"/>
       <c r="K2"/>
       <c r="O2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C3"/>
       <c r="G3"/>
       <c r="K3"/>
       <c r="O3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4"/>
       <c r="G4"/>
       <c r="K4"/>
       <c r="O4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="G5"/>
       <c r="K5"/>
       <c r="O5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6"/>
       <c r="G6"/>
       <c r="K6"/>
       <c r="O6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7"/>
       <c r="G7"/>
       <c r="K7"/>
       <c r="O7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8"/>
       <c r="G8"/>
       <c r="K8"/>
       <c r="O8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="2:20" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:19" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3034,9 +2554,9 @@
       <c r="O9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10"/>
       <c r="G10"/>
@@ -3044,79 +2564,35 @@
       <c r="O10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11"/>
       <c r="G11"/>
       <c r="K11"/>
       <c r="O11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="2:20" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="G13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="S13" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:T13" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="B13:D13" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B9:L9"/>
   </mergeCells>
@@ -3140,7 +2616,7 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:T13"/>
+  <dimension ref="B1:S13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -3168,65 +2644,65 @@
     <col min="20" max="20" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C1"/>
       <c r="G1"/>
       <c r="K1"/>
       <c r="O1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C2"/>
       <c r="G2"/>
       <c r="K2"/>
       <c r="O2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C3"/>
       <c r="G3"/>
       <c r="K3"/>
       <c r="O3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4"/>
       <c r="G4"/>
       <c r="K4"/>
       <c r="O4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="G5"/>
       <c r="K5"/>
       <c r="O5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6"/>
       <c r="G6"/>
       <c r="K6"/>
       <c r="O6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7"/>
       <c r="G7"/>
       <c r="K7"/>
       <c r="O7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8"/>
       <c r="G8"/>
       <c r="K8"/>
       <c r="O8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="2:20" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:19" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3241,9 +2717,9 @@
       <c r="O9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10"/>
       <c r="G10"/>
@@ -3251,79 +2727,35 @@
       <c r="O10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11"/>
       <c r="G11"/>
       <c r="K11"/>
       <c r="O11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="2:20" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="G13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="S13" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:T13" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="B13:D13" xr:uid="{E3F3AF09-0935-4B97-AF12-CE1C1B98D7BA}"/>
   <mergeCells count="1">
     <mergeCell ref="B9:L9"/>
   </mergeCells>
@@ -3359,7 +2791,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -3371,7 +2803,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3414,7 +2846,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -3426,7 +2858,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
